--- a/cold_start_results.xlsx
+++ b/cold_start_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>AITRecX</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>USEM</t>
+  </si>
+  <si>
+    <t>MostPop</t>
   </si>
   <si>
     <t>Set</t>
@@ -434,21 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -462,16 +465,19 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0.5084906220436096</v>
@@ -485,12 +491,15 @@
       <c r="G2">
         <v>0.06542182713747025</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.06521885842084885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0.5727623105049133</v>
@@ -504,12 +513,15 @@
       <c r="G3">
         <v>0.09593396633863449</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.09593396633863449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0.4528816342353821</v>
@@ -523,14 +535,17 @@
       <c r="G4">
         <v>0.05210054293274879</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.05167965590953827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>0.5531460642814636</v>
@@ -544,12 +559,15 @@
       <c r="G5">
         <v>0.05825996771454811</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.05825996771454811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0.6414422392845154</v>
@@ -563,12 +581,15 @@
       <c r="G6">
         <v>0.07865095883607864</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.07560849189758301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0.4777730107307434</v>
@@ -582,16 +603,19 @@
       <c r="G7">
         <v>0.034588523209095</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.03527610376477242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0.9355524182319641</v>
@@ -605,12 +629,15 @@
       <c r="G8">
         <v>0.9228045344352722</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.5966714024543762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0.9660056829452515</v>
@@ -624,12 +651,15 @@
       <c r="G9">
         <v>0.9507790207862854</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0.7446883916854858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0.8651416897773743</v>
@@ -643,14 +673,17 @@
       <c r="G10">
         <v>0.8619601726531982</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.5049448609352112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0.9236640930175781</v>
@@ -664,12 +697,15 @@
       <c r="G11">
         <v>0.9148377776145935</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.4995228946208954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>0.9611164331436157</v>
@@ -683,12 +719,15 @@
       <c r="G12">
         <v>0.9432252049446106</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.6371660232543945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>0.864532470703125</v>
@@ -702,14 +741,17 @@
       <c r="G13">
         <v>0.863792896270752</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0.3956058621406555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>0.9397749900817871</v>
@@ -723,12 +765,15 @@
       <c r="G14">
         <v>0.9417604207992554</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0.5929847955703735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0.9715420007705688</v>
@@ -742,12 +787,15 @@
       <c r="G15">
         <v>0.9722038507461548</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0.710125744342804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>0.8600685000419617</v>
@@ -761,14 +809,17 @@
       <c r="G16">
         <v>0.8688400983810425</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0.4460505843162537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>0.9602996110916138</v>
@@ -782,12 +833,15 @@
       <c r="G17">
         <v>0.9580524563789368</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.6674157381057739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>0.979026198387146</v>
@@ -801,12 +855,15 @@
       <c r="G18">
         <v>0.9820224642753601</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.8149812817573547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>0.9003991484642029</v>
@@ -820,14 +877,17 @@
       <c r="G19">
         <v>0.9068130850791931</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0.5675419569015503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>0.9457429051399231</v>
@@ -841,12 +901,15 @@
       <c r="G20">
         <v>0.9407345652580261</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0.4983305633068085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>0.9741235375404358</v>
@@ -860,12 +923,15 @@
       <c r="G21">
         <v>0.9674457311630249</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0.6861435770988464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0.8843570351600647</v>
@@ -879,16 +945,19 @@
       <c r="G22">
         <v>0.884280800819397</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.4109925329685211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>0.6359946131706238</v>
@@ -902,12 +971,15 @@
       <c r="G23">
         <v>0.5595399141311646</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.2158322036266327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>0.7395128607749939</v>
@@ -921,12 +993,15 @@
       <c r="G24">
         <v>0.6271989345550537</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.2882273197174072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>0.5692177414894104</v>
@@ -940,14 +1015,17 @@
       <c r="G25">
         <v>0.5033497214317322</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.179208055138588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>0.4972161054611206</v>
@@ -961,12 +1039,15 @@
       <c r="G26">
         <v>0.4465805292129517</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0.03235634043812752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>0.5718037486076355</v>
@@ -980,12 +1061,15 @@
       <c r="G27">
         <v>0.5125538110733032</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0.04632839560508728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>0.4371542036533356</v>
@@ -999,14 +1083,17 @@
       <c r="G28">
         <v>0.3960646986961365</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0.02439447306096554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>0.5350117087364197</v>
@@ -1020,12 +1107,15 @@
       <c r="G29">
         <v>0.4908419251441956</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0.05253636837005615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>0.6073716878890991</v>
@@ -1039,12 +1129,15 @@
       <c r="G30">
         <v>0.5576241612434387</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0.07748548686504364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>0.4712682068347931</v>
@@ -1058,14 +1151,17 @@
       <c r="G31">
         <v>0.4296675026416779</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0.04089365527033806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>0.6095706820487976</v>
@@ -1079,12 +1175,15 @@
       <c r="G32">
         <v>0.5907464623451233</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0.06879167258739471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>0.6759635806083679</v>
@@ -1098,12 +1197,15 @@
       <c r="G33">
         <v>0.6570174098014832</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0.09956903755664825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>0.5470234155654907</v>
@@ -1117,14 +1219,17 @@
       <c r="G34">
         <v>0.5347103476524353</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0.05853383988142014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>0.4137199223041534</v>
@@ -1138,12 +1243,15 @@
       <c r="G35">
         <v>0.3637819886207581</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0.02246605977416039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>0.4789956212043762</v>
@@ -1157,12 +1265,15 @@
       <c r="G36">
         <v>0.4265748262405396</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0.03672259673476219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>0.364946186542511</v>
@@ -1175,6 +1286,9 @@
       </c>
       <c r="G37">
         <v>0.3228680193424225</v>
+      </c>
+      <c r="H37">
+        <v>0.01989926025271416</v>
       </c>
     </row>
   </sheetData>
